--- a/data/trans_orig/P17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15186</v>
+        <v>15597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36483</v>
+        <v>35395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02341307652732397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01476902250671305</v>
+        <v>0.01516891087811507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03548169409216993</v>
+        <v>0.03442311351662034</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>10072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5094</v>
+        <v>4977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19038</v>
+        <v>18690</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007664143177381159</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003876184206328686</v>
+        <v>0.003786932719713875</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01448687919637856</v>
+        <v>0.01422143952864705</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>34146</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23304</v>
+        <v>23542</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47267</v>
+        <v>47792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01457733501395008</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009948696117973993</v>
+        <v>0.01005023510051437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02017866313966503</v>
+        <v>0.0204029250919637</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>183765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>158985</v>
+        <v>159097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>206485</v>
+        <v>207130</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1787202131224482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1546202769905788</v>
+        <v>0.1547292715084939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2008159735484083</v>
+        <v>0.2014428676858462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -836,19 +836,19 @@
         <v>94943</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76200</v>
+        <v>77612</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112602</v>
+        <v>115281</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07224481425884435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05798307282980266</v>
+        <v>0.05905769280291924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08568251402105452</v>
+        <v>0.08772052061787082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>272</v>
@@ -857,19 +857,19 @@
         <v>278708</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>250992</v>
+        <v>246254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>310185</v>
+        <v>308807</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1189835261362401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1071511431822325</v>
+        <v>0.1051283715246979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.132421210756769</v>
+        <v>0.1318329560144146</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>172983</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>148921</v>
+        <v>150239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>196146</v>
+        <v>196585</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1682335840346653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1448319079571583</v>
+        <v>0.1461141789290324</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1907611898545785</v>
+        <v>0.1911881364876455</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>274</v>
@@ -907,19 +907,19 @@
         <v>277457</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>249028</v>
+        <v>250366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>309351</v>
+        <v>309990</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.211125457983864</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1894932675241137</v>
+        <v>0.190511283534172</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2353950073597052</v>
+        <v>0.2358809829476222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>448</v>
@@ -928,19 +928,19 @@
         <v>450440</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>412492</v>
+        <v>410850</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>488060</v>
+        <v>489726</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1922975319109011</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1760971522214863</v>
+        <v>0.1753960706280589</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2083578965703711</v>
+        <v>0.209069449030557</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>71658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55268</v>
+        <v>57005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88006</v>
+        <v>89459</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06969070116181815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05375088916114413</v>
+        <v>0.05544032495111219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08559015869509604</v>
+        <v>0.08700327887409214</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -978,19 +978,19 @@
         <v>93958</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76662</v>
+        <v>77090</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113663</v>
+        <v>113627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07149579560940869</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0583346033943738</v>
+        <v>0.05866021303679515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08648936472488587</v>
+        <v>0.08646233415136295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>163</v>
@@ -999,19 +999,19 @@
         <v>165616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142592</v>
+        <v>144192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193815</v>
+        <v>192004</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07070342675991044</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06087386226490191</v>
+        <v>0.06155728315140046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08274187479065437</v>
+        <v>0.08196869347371373</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>575750</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>543991</v>
+        <v>544483</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>607482</v>
+        <v>607248</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5599424251537444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5290556381385282</v>
+        <v>0.5295342346755844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5908036526384864</v>
+        <v>0.5905761188470509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>821</v>
@@ -1049,19 +1049,19 @@
         <v>837750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>799888</v>
+        <v>802971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>870752</v>
+        <v>870414</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6374697889705018</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6086595115228448</v>
+        <v>0.611005253506592</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6625818508579454</v>
+        <v>0.6623246713448636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1411</v>
@@ -1070,19 +1070,19 @@
         <v>1413500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1366730</v>
+        <v>1365299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1459890</v>
+        <v>1462083</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6034381801789983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5834718962452531</v>
+        <v>0.5828609902017724</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.623242790071566</v>
+        <v>0.6241787503844113</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>25834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16560</v>
+        <v>16921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37523</v>
+        <v>38088</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01528028465337025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009794748048333714</v>
+        <v>0.01000827614608846</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02219382958211492</v>
+        <v>0.0225280872208453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1195,19 +1195,19 @@
         <v>19768</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11116</v>
+        <v>10833</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30100</v>
+        <v>32053</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01245871360897714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007005792700273134</v>
+        <v>0.006827663109333964</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01897038586418952</v>
+        <v>0.02020087380800954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1216,19 +1216,19 @@
         <v>45603</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32079</v>
+        <v>32943</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63501</v>
+        <v>63022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01391426548341572</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009787893452331924</v>
+        <v>0.01005145953616759</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01937547379774516</v>
+        <v>0.01922920138987009</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>475163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>438767</v>
+        <v>437715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515399</v>
+        <v>513163</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.281046312462909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2595190288292795</v>
+        <v>0.2588966022280276</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3048444190239106</v>
+        <v>0.3035219292429976</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -1266,19 +1266,19 @@
         <v>244065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217363</v>
+        <v>215591</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>273220</v>
+        <v>271964</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1538194856417145</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1369906527594548</v>
+        <v>0.1358740204187844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1721938435940382</v>
+        <v>0.1714022047556369</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>704</v>
@@ -1287,19 +1287,19 @@
         <v>719228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>675449</v>
+        <v>671137</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>770105</v>
+        <v>767692</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2194514485959888</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2060934416410866</v>
+        <v>0.2047777044215364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2349750293485046</v>
+        <v>0.2342386220692209</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>174876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>150481</v>
+        <v>149262</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>202190</v>
+        <v>202328</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1034345946741189</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08900553351761777</v>
+        <v>0.08828440007075712</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1195898092300279</v>
+        <v>0.1196717567044408</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>342</v>
@@ -1337,19 +1337,19 @@
         <v>348055</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>314169</v>
+        <v>317578</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>380607</v>
+        <v>381959</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2193580280992134</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1980019698948281</v>
+        <v>0.2001503020443777</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2398735790354228</v>
+        <v>0.2407257293204021</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>512</v>
@@ -1358,19 +1358,19 @@
         <v>522931</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>475939</v>
+        <v>482363</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>562102</v>
+        <v>565213</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1595570987026105</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.145218686910082</v>
+        <v>0.1471787936755918</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1715088599540973</v>
+        <v>0.1724582214705965</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>192319</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165470</v>
+        <v>166658</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219952</v>
+        <v>219232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1137514814136564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09787094328438602</v>
+        <v>0.09857379187872177</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1300959622933123</v>
+        <v>0.1296699754027421</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -1408,19 +1408,19 @@
         <v>183592</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159368</v>
+        <v>160090</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211754</v>
+        <v>207240</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.115707066781689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1004399085096602</v>
+        <v>0.1008951827739856</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1334556334074602</v>
+        <v>0.1306108908464124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>367</v>
@@ -1429,19 +1429,19 @@
         <v>375911</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>337814</v>
+        <v>341589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>411653</v>
+        <v>416012</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1146982472611879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1030741265752299</v>
+        <v>0.104225752259174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1256039223122841</v>
+        <v>0.1269338823213952</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>822501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>780770</v>
+        <v>782878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>866288</v>
+        <v>865734</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4864873267959454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4618042785486052</v>
+        <v>0.4630510524706535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5123861566833391</v>
+        <v>0.5120581904312327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>772</v>
@@ -1479,19 +1479,19 @@
         <v>791218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>754988</v>
+        <v>749559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>834668</v>
+        <v>828770</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.498656705868406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4758233302853291</v>
+        <v>0.4724014947154666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.526041041513812</v>
+        <v>0.5223239632124722</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1577</v>
@@ -1500,19 +1500,19 @@
         <v>1613719</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1560068</v>
+        <v>1554752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1671586</v>
+        <v>1674619</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4923789399567972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.476009016522204</v>
+        <v>0.4743869662071967</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5100353675839596</v>
+        <v>0.5109609241670842</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>14310</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7716</v>
+        <v>8555</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23513</v>
+        <v>23479</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02610262460271981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01407584138465136</v>
+        <v>0.01560489195686688</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04289058848734882</v>
+        <v>0.04282895745731163</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1625,19 +1625,19 @@
         <v>16483</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10125</v>
+        <v>10309</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26728</v>
+        <v>26215</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03459761791880278</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02125329935876591</v>
+        <v>0.02163964438885994</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05610165441594527</v>
+        <v>0.05502606636303019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1646,19 +1646,19 @@
         <v>30792</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21628</v>
+        <v>21252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44479</v>
+        <v>43821</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0300524962837511</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02110801248938629</v>
+        <v>0.02074157781185614</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04341068074442603</v>
+        <v>0.04276829031025822</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>145992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125093</v>
+        <v>125114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167375</v>
+        <v>169161</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2663073767356195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2281854165891922</v>
+        <v>0.2282239364630645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3053134061120716</v>
+        <v>0.3085710623511345</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -1696,19 +1696,19 @@
         <v>76026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60553</v>
+        <v>60461</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>93414</v>
+        <v>94679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1595806604980178</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1271025859802888</v>
+        <v>0.1269094712774339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1960772034106103</v>
+        <v>0.1987324119328753</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -1717,19 +1717,19 @@
         <v>222018</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194130</v>
+        <v>195739</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249998</v>
+        <v>249383</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2166832253806959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1894657398972107</v>
+        <v>0.1910354103435981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2439909472807563</v>
+        <v>0.243390809317029</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>58105</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43598</v>
+        <v>44332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74046</v>
+        <v>74707</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.105991028265974</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07952897706357817</v>
+        <v>0.08086685686754208</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1350700295252407</v>
+        <v>0.1362744059431004</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -1767,19 +1767,19 @@
         <v>86010</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68155</v>
+        <v>70243</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>101904</v>
+        <v>104672</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.180536935872703</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1430588312014409</v>
+        <v>0.1474423842456524</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2138998615708738</v>
+        <v>0.2197091174278155</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -1788,19 +1788,19 @@
         <v>144115</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>124408</v>
+        <v>121588</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>170378</v>
+        <v>168186</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1406522408693011</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1214189173373023</v>
+        <v>0.1186663025893018</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1662837971722936</v>
+        <v>0.1641453093172758</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>94582</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77904</v>
+        <v>77614</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>115336</v>
+        <v>113632</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1725297208059589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1421074167815314</v>
+        <v>0.1415784128470224</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2103882709385793</v>
+        <v>0.2072801005186929</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1838,19 +1838,19 @@
         <v>53768</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40993</v>
+        <v>41346</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67731</v>
+        <v>69504</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1128596047557158</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08604461801703536</v>
+        <v>0.0867865925720723</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1421693564240439</v>
+        <v>0.1458899057160173</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -1859,19 +1859,19 @@
         <v>148350</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126912</v>
+        <v>127612</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172054</v>
+        <v>173099</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1447852255696304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1238627576874189</v>
+        <v>0.1245456188531915</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1679201722861669</v>
+        <v>0.1689398905313814</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>235219</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210695</v>
+        <v>209233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263241</v>
+        <v>261187</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4290692495897277</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3843341203150015</v>
+        <v>0.3816674634788824</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4801852014172451</v>
+        <v>0.4764383279411707</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -1909,19 +1909,19 @@
         <v>244126</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223810</v>
+        <v>221660</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268143</v>
+        <v>267929</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5124251809547606</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4697818776214366</v>
+        <v>0.4652691990325917</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5628375821015813</v>
+        <v>0.5623889742627458</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>455</v>
@@ -1930,19 +1930,19 @@
         <v>479344</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>444942</v>
+        <v>448155</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509054</v>
+        <v>510927</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4678268118966215</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4342514556445311</v>
+        <v>0.4373866153958743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4968229512167424</v>
+        <v>0.4986504068190313</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>64218</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48897</v>
+        <v>48484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>81641</v>
+        <v>82602</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01965576459945256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01496632401361257</v>
+        <v>0.01483988690032638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02498848362775068</v>
+        <v>0.025282603188723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2055,19 +2055,19 @@
         <v>46323</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34047</v>
+        <v>33841</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62925</v>
+        <v>62774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01371602493417913</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01008120888551851</v>
+        <v>0.01002028289016419</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01863179846300369</v>
+        <v>0.01858709537703928</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -2076,19 +2076,19 @@
         <v>110541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91512</v>
+        <v>89234</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135607</v>
+        <v>132055</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01663665759335305</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01377276847973239</v>
+        <v>0.01342992701015211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02040920812280397</v>
+        <v>0.01987455004349156</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>804921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>755506</v>
+        <v>753925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>857733</v>
+        <v>859564</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2463691715345963</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.231244348576201</v>
+        <v>0.2307604164552835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2625340534705338</v>
+        <v>0.2630942698854609</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>406</v>
@@ -2126,19 +2126,19 @@
         <v>415034</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>377300</v>
+        <v>378949</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>453628</v>
+        <v>453710</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1228896194484102</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1117166941632207</v>
+        <v>0.1122049383285864</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1343172495503767</v>
+        <v>0.1343413669549431</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1185</v>
@@ -2147,19 +2147,19 @@
         <v>1219954</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1164691</v>
+        <v>1153334</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1285752</v>
+        <v>1290526</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.18360581794976</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1752885873406677</v>
+        <v>0.1735792434895369</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1935085471289897</v>
+        <v>0.1942269594559304</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>405964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>368589</v>
+        <v>368905</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>444701</v>
+        <v>446936</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1242570605759575</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1128173582529955</v>
+        <v>0.1129138726875476</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1361135047113494</v>
+        <v>0.1367977496314648</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>698</v>
@@ -2197,19 +2197,19 @@
         <v>711522</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>666982</v>
+        <v>666233</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>758004</v>
+        <v>763110</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2106783156633959</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1974902194373786</v>
+        <v>0.1972687084383334</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2244415113147626</v>
+        <v>0.2259535479583213</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1098</v>
@@ -2218,19 +2218,19 @@
         <v>1117486</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1061546</v>
+        <v>1056218</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1179410</v>
+        <v>1176297</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1681840727707566</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1597650415276598</v>
+        <v>0.1589631466944889</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1775038417796653</v>
+        <v>0.17703532715874</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>358559</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>324918</v>
+        <v>325075</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>395739</v>
+        <v>397899</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1097473683090473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09945061182759393</v>
+        <v>0.09949870280872915</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1211273833063263</v>
+        <v>0.1217885956665992</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>325</v>
@@ -2268,19 +2268,19 @@
         <v>331318</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>298287</v>
+        <v>299784</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>368897</v>
+        <v>366712</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09810178492997515</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08832147452947277</v>
+        <v>0.08876476066925101</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.109228714009086</v>
+        <v>0.1085818177153285</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>674</v>
@@ -2289,19 +2289,19 @@
         <v>689877</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>637526</v>
+        <v>644617</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>738301</v>
+        <v>738445</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1038280411413213</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09594908726254174</v>
+        <v>0.09701623785837606</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1111159736428124</v>
+        <v>0.111137613385763</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>1633470</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1570688</v>
+        <v>1575555</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1684268</v>
+        <v>1695598</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4999706349809463</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4807542228270745</v>
+        <v>0.4822440145178471</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5155186630894389</v>
+        <v>0.5189867715480917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1825</v>
@@ -2339,19 +2339,19 @@
         <v>1873093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1818141</v>
+        <v>1815329</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1935829</v>
+        <v>1929833</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5546142550240397</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5383433259762956</v>
+        <v>0.5375105678841556</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5731901464700152</v>
+        <v>0.5714148199067045</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3443</v>
@@ -2360,19 +2360,19 @@
         <v>3506563</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3418968</v>
+        <v>3414916</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3582504</v>
+        <v>3591967</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5277454105448091</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5145622720252869</v>
+        <v>0.5139523394414441</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5391747797693177</v>
+        <v>0.5405989594393545</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>17890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10687</v>
+        <v>10766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29523</v>
+        <v>30915</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01837568443088331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0109770908095603</v>
+        <v>0.01105848515603674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03032366027017254</v>
+        <v>0.03175398634985076</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2724,19 +2724,19 @@
         <v>7859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3706</v>
+        <v>3147</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16630</v>
+        <v>17491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005879482270575273</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002772633111572808</v>
+        <v>0.002354350878841754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01244070946446373</v>
+        <v>0.01308511417214756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2745,19 +2745,19 @@
         <v>25750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16584</v>
+        <v>15533</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38850</v>
+        <v>38860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01114545737273827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007178421648054552</v>
+        <v>0.006723142829168646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01681596622465927</v>
+        <v>0.01682018329695672</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>117617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97787</v>
+        <v>97333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138489</v>
+        <v>137929</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1208079601690861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1004398491211299</v>
+        <v>0.09997439587071039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1422465923165001</v>
+        <v>0.1416713572401834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -2795,19 +2795,19 @@
         <v>65694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51069</v>
+        <v>50232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83236</v>
+        <v>82799</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0491450108147751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03820442572114254</v>
+        <v>0.03757775581183141</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06226820508291105</v>
+        <v>0.061940984516971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -2816,19 +2816,19 @@
         <v>183311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>158252</v>
+        <v>156850</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>208203</v>
+        <v>210237</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07934421071616871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06849774593163484</v>
+        <v>0.06789116873592088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09011864207221433</v>
+        <v>0.09099911705530472</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>128101</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107502</v>
+        <v>107857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>150416</v>
+        <v>150755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1315772228594424</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1104189251026623</v>
+        <v>0.1107840544313664</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.154497843508312</v>
+        <v>0.1548453993092918</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>252</v>
@@ -2866,19 +2866,19 @@
         <v>268854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>239620</v>
+        <v>237791</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>301380</v>
+        <v>297956</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2011269438926583</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1792574725537875</v>
+        <v>0.1778893010371487</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2254590208139572</v>
+        <v>0.222897625736921</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>369</v>
@@ -2887,19 +2887,19 @@
         <v>396956</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>360964</v>
+        <v>362650</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>438047</v>
+        <v>438101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1718182711755494</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1562398019728948</v>
+        <v>0.1569696672258556</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1896043772746586</v>
+        <v>0.1896278894627129</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>58159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44461</v>
+        <v>43097</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75834</v>
+        <v>74214</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0597371289141719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04566698942138562</v>
+        <v>0.04426670806621844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.077891330091134</v>
+        <v>0.0762279394941958</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -2937,19 +2937,19 @@
         <v>63292</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46788</v>
+        <v>48270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80225</v>
+        <v>81319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04734776371017516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03500133992136718</v>
+        <v>0.03611010069361004</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06001529911517497</v>
+        <v>0.06083420642751915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -2958,19 +2958,19 @@
         <v>121451</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100753</v>
+        <v>100647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144793</v>
+        <v>143558</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05256871707335627</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0436097872082946</v>
+        <v>0.04356401198094498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06267231015064002</v>
+        <v>0.06213765393650319</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>651816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>621310</v>
+        <v>622541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>677882</v>
+        <v>680534</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6695020036264163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6381681278963368</v>
+        <v>0.6394330417602841</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6962757073974969</v>
+        <v>0.6989997449559309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>870</v>
@@ -3008,19 +3008,19 @@
         <v>931039</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896389</v>
+        <v>897830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966732</v>
+        <v>967694</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6965007993118162</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6705793861288963</v>
+        <v>0.671657611083972</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7232022009680259</v>
+        <v>0.7239217885114089</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1477</v>
@@ -3029,19 +3029,19 @@
         <v>1582856</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1535996</v>
+        <v>1541692</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1627005</v>
+        <v>1626735</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6851233436621873</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6648408164825471</v>
+        <v>0.6673060142965747</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7042328460106597</v>
+        <v>0.7041161819932223</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>22397</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13219</v>
+        <v>13631</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34568</v>
+        <v>36431</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01141024317357407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006734595781023203</v>
+        <v>0.00694411907446308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01761057833814544</v>
+        <v>0.01855942035900662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3154,19 +3154,19 @@
         <v>13417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7913</v>
+        <v>7930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22620</v>
+        <v>22164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007632647099520092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004501625687385718</v>
+        <v>0.004511515015613621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01286829971156979</v>
+        <v>0.01260890216981219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -3175,19 +3175,19 @@
         <v>35814</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24016</v>
+        <v>24929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51030</v>
+        <v>50023</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0096255697965376</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006454709380325985</v>
+        <v>0.006699927612404313</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01371496637940262</v>
+        <v>0.01344447759067391</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>376894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>343352</v>
+        <v>339414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>415039</v>
+        <v>413496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.192007381575964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1749192391677169</v>
+        <v>0.1729129023687448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2114399270235792</v>
+        <v>0.210653749547123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -3225,19 +3225,19 @@
         <v>160825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136843</v>
+        <v>137845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186545</v>
+        <v>187114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09149192345299444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07784861374108941</v>
+        <v>0.07841890997381402</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1061242125673656</v>
+        <v>0.1064477928785162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>510</v>
@@ -3246,19 +3246,19 @@
         <v>537719</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>491687</v>
+        <v>495994</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>581409</v>
+        <v>580628</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1445202340419037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1321484318248489</v>
+        <v>0.1333060676340423</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1562625972331691</v>
+        <v>0.1560527563200734</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>316424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>284192</v>
+        <v>284962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>353407</v>
+        <v>353725</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1612008498898942</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1447802976777674</v>
+        <v>0.1451726223157634</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1800420256176427</v>
+        <v>0.1802040738380059</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>431</v>
@@ -3296,19 +3296,19 @@
         <v>458866</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>423403</v>
+        <v>418760</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>496318</v>
+        <v>495650</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2610450659417966</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2408707688129402</v>
+        <v>0.2382293181871472</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.282351389589836</v>
+        <v>0.2819714589660444</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>730</v>
@@ -3317,19 +3317,19 @@
         <v>775289</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>719042</v>
+        <v>723545</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>827721</v>
+        <v>823759</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2083708783274983</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1932536359326982</v>
+        <v>0.1944636971019548</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2224626317941483</v>
+        <v>0.2213978910452538</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>217498</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>189241</v>
+        <v>188880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>246077</v>
+        <v>246477</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1108036223002393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09640821727605699</v>
+        <v>0.09622443435204125</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.125362882609284</v>
+        <v>0.12556654586877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -3367,19 +3367,19 @@
         <v>215793</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>189139</v>
+        <v>187823</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243049</v>
+        <v>246529</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1227628598976092</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1075998745270697</v>
+        <v>0.1068512202055436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1382684194535758</v>
+        <v>0.140248413563291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>406</v>
@@ -3388,19 +3388,19 @@
         <v>433291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>395894</v>
+        <v>395779</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>475185</v>
+        <v>474563</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1164535998339079</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.106402597305084</v>
+        <v>0.1063716098201251</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1277131857825717</v>
+        <v>0.1275459563880014</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>1029702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>985529</v>
+        <v>983405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1075023</v>
+        <v>1077826</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5245779030603284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5020738717320304</v>
+        <v>0.5009920390100738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5476663700175234</v>
+        <v>0.5490943531632774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>845</v>
@@ -3438,19 +3438,19 @@
         <v>908903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>866639</v>
+        <v>867127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>948315</v>
+        <v>955861</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5170675036080797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4930238950126998</v>
+        <v>0.4933014809989368</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.539488716120567</v>
+        <v>0.5437816332419075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1813</v>
@@ -3459,19 +3459,19 @@
         <v>1938605</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1871549</v>
+        <v>1876541</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2003934</v>
+        <v>1998196</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5210297180001525</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5030074576326806</v>
+        <v>0.5043488911946439</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5385877694508029</v>
+        <v>0.5370455791211641</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>9987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4143</v>
+        <v>4948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18070</v>
+        <v>18976</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02075513987165333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008610245604496424</v>
+        <v>0.01028349481435736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03755294298464537</v>
+        <v>0.03943569666087061</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3584,19 +3584,19 @@
         <v>9924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4554</v>
+        <v>4772</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20014</v>
+        <v>19510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0217394598157589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009975410180480621</v>
+        <v>0.01045430630712603</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0438410769964554</v>
+        <v>0.0427375392469421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3605,19 +3605,19 @@
         <v>19911</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12367</v>
+        <v>12219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31307</v>
+        <v>32518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02123435023032401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01318923263753063</v>
+        <v>0.01303117469958688</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03338722299174292</v>
+        <v>0.03467848084273298</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>99528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82468</v>
+        <v>81378</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>118885</v>
+        <v>117886</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2068404313168036</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1713874231371933</v>
+        <v>0.169120473755787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2470699527938373</v>
+        <v>0.2449933539915938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -3655,19 +3655,19 @@
         <v>46402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33691</v>
+        <v>33071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61478</v>
+        <v>60279</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1016451087479011</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07380045728248393</v>
+        <v>0.07244377376336322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1346706579029894</v>
+        <v>0.1320429940061859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -3676,19 +3676,19 @@
         <v>145930</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>123674</v>
+        <v>123590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>168258</v>
+        <v>170539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1556267090300638</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1318919906741721</v>
+        <v>0.1318026903998132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1794387373563724</v>
+        <v>0.1818709248155263</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>76508</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59066</v>
+        <v>61342</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94907</v>
+        <v>95985</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1590008922697395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1227528592919684</v>
+        <v>0.1274815723381781</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1972380961914748</v>
+        <v>0.1994777708890266</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>105</v>
@@ -3726,19 +3726,19 @@
         <v>116026</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>96281</v>
+        <v>98031</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>136757</v>
+        <v>137561</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2541588403269136</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2109075377594377</v>
+        <v>0.2147408196593981</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2995723729201005</v>
+        <v>0.3013327862721256</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>173</v>
@@ -3747,19 +3747,19 @@
         <v>192534</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>167633</v>
+        <v>167031</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>218216</v>
+        <v>221777</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.205327977981978</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1787721378137383</v>
+        <v>0.1781301662442889</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2327160129678538</v>
+        <v>0.2365138057791575</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>69393</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53522</v>
+        <v>54710</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86675</v>
+        <v>87225</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1442142140472698</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.111231167449778</v>
+        <v>0.1136985643995677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1801303610629021</v>
+        <v>0.1812726277608236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -3797,19 +3797,19 @@
         <v>50165</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37723</v>
+        <v>37770</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66443</v>
+        <v>67066</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1098889682176042</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0826338130701685</v>
+        <v>0.08273745013363423</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1455468085928193</v>
+        <v>0.1469095000084535</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -3818,19 +3818,19 @@
         <v>119559</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99539</v>
+        <v>98773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>143411</v>
+        <v>140595</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1275031705862534</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1061536378965618</v>
+        <v>0.1053368066239279</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1529403566690759</v>
+        <v>0.1499376558740085</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>225765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204900</v>
+        <v>198202</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252077</v>
+        <v>246232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4691893224945338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4258265600683702</v>
+        <v>0.4119075131733603</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5238714730948454</v>
+        <v>0.5117239037440697</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -3868,19 +3868,19 @@
         <v>233992</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>209649</v>
+        <v>210464</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254240</v>
+        <v>255923</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5125676228918222</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4592434806718643</v>
+        <v>0.4610300894133776</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.556921722049974</v>
+        <v>0.5606089808154701</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>412</v>
@@ -3889,19 +3889,19 @@
         <v>459757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>429622</v>
+        <v>428441</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>491014</v>
+        <v>491698</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4903077921713808</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4581701353587595</v>
+        <v>0.456910396220416</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5236420284574808</v>
+        <v>0.5243714398750887</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>50275</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35709</v>
+        <v>38085</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67667</v>
+        <v>70021</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01471014977475018</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01044821199245466</v>
+        <v>0.01114350720287939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01979917076844022</v>
+        <v>0.02048775917526986</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -4014,19 +4014,19 @@
         <v>31200</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20435</v>
+        <v>20968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43936</v>
+        <v>45275</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008786211915713209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005754666624082227</v>
+        <v>0.00590464903925206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01237259127632246</v>
+        <v>0.01274970501003962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -4035,19 +4035,19 @@
         <v>81475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63547</v>
+        <v>61732</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106543</v>
+        <v>103473</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01169149430156342</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009118877953727608</v>
+        <v>0.008858404071589008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0152886984847314</v>
+        <v>0.01484812390474661</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>594039</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>551217</v>
+        <v>549169</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>640983</v>
+        <v>641084</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1738134113928352</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1612839153902446</v>
+        <v>0.1606847805091414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1875491764801651</v>
+        <v>0.1875787187863804</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>252</v>
@@ -4085,19 +4085,19 @@
         <v>272921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>240236</v>
+        <v>240772</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>306239</v>
+        <v>305927</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07685633307359603</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06765223047468825</v>
+        <v>0.06780316630239108</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08623896621843481</v>
+        <v>0.08615111456438053</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>819</v>
@@ -4106,19 +4106,19 @@
         <v>866960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>812525</v>
+        <v>813223</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>925085</v>
+        <v>922981</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1244070836937549</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.116595859098061</v>
+        <v>0.1166960330468487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1327479552728618</v>
+        <v>0.1324460734020793</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>521033</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>477123</v>
+        <v>476619</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>566509</v>
+        <v>565124</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1524523301726916</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1396043182843242</v>
+        <v>0.1394567382638225</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.165758306174843</v>
+        <v>0.165352990879919</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>788</v>
@@ -4156,19 +4156,19 @@
         <v>843746</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>791161</v>
+        <v>791945</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>895279</v>
+        <v>898561</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2376045437750811</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2227962988981139</v>
+        <v>0.2230170160547718</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2521166034538597</v>
+        <v>0.2530409847806612</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1272</v>
@@ -4177,19 +4177,19 @@
         <v>1364779</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1297296</v>
+        <v>1297801</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1435861</v>
+        <v>1435099</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1958432640010569</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1861596119382171</v>
+        <v>0.1862320471070067</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2060434315890991</v>
+        <v>0.2059340735690216</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>345050</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>310672</v>
+        <v>308567</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>382209</v>
+        <v>383627</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1009604172542921</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09090154219569518</v>
+        <v>0.09028540620709179</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1118329622484614</v>
+        <v>0.1122476039208966</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>301</v>
@@ -4227,19 +4227,19 @@
         <v>329250</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>294483</v>
+        <v>294800</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>368156</v>
+        <v>368349</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09271898908986789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08292847885357862</v>
+        <v>0.08301780839233815</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1036752147010565</v>
+        <v>0.1037295022011378</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>629</v>
@@ -4248,19 +4248,19 @@
         <v>674300</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>627790</v>
+        <v>627197</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>722119</v>
+        <v>723755</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09676084041412267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0900867564424534</v>
+        <v>0.09000162717998721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1036227587072208</v>
+        <v>0.1038574776310048</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>1907284</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1847075</v>
+        <v>1845253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1966142</v>
+        <v>1967171</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5580636914054309</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5404468068213366</v>
+        <v>0.539913717109553</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5752855093362843</v>
+        <v>0.5755863655954124</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1923</v>
@@ -4298,19 +4298,19 @@
         <v>2073934</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2014322</v>
+        <v>2013258</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2134765</v>
+        <v>2133549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5840339221457418</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5672470081789792</v>
+        <v>0.5669472324957713</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6011643573813547</v>
+        <v>0.6008219765616183</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3702</v>
@@ -4319,19 +4319,19 @@
         <v>3981217</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3895134</v>
+        <v>3894237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4069262</v>
+        <v>4074657</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5712973175895021</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5589445282099909</v>
+        <v>0.5588158468477136</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5839316129346968</v>
+        <v>0.584705804643908</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>8025</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4106</v>
+        <v>3377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16842</v>
+        <v>15007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01066995607879645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005458834849113769</v>
+        <v>0.004490069841091175</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02239178155861074</v>
+        <v>0.01995280652973024</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4683,19 +4683,19 @@
         <v>6460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2400</v>
+        <v>2295</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13898</v>
+        <v>13672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006507282096290512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002417711834779369</v>
+        <v>0.002311535630113364</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01399877757443113</v>
+        <v>0.01377136935008322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4704,19 +4704,19 @@
         <v>14486</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8477</v>
+        <v>8215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24614</v>
+        <v>23667</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008301551188043503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004858099599081489</v>
+        <v>0.004707919754483092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01410605648460831</v>
+        <v>0.01356323329236429</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>92556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75934</v>
+        <v>76523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112368</v>
+        <v>112025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1230566648955362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1009567533979041</v>
+        <v>0.1017401418402997</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1493977053683246</v>
+        <v>0.1489421527167312</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -4754,19 +4754,19 @@
         <v>72424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56683</v>
+        <v>56071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90143</v>
+        <v>89139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07294839974465811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05709326497049615</v>
+        <v>0.05647663964883424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09079585927667159</v>
+        <v>0.08978469496711337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -4775,19 +4775,19 @@
         <v>164980</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>138301</v>
+        <v>140884</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>190031</v>
+        <v>190629</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09454694716380033</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07925799405452526</v>
+        <v>0.0807382438242535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1089032473260188</v>
+        <v>0.1092461021139692</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>73459</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58864</v>
+        <v>58260</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89927</v>
+        <v>91203</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09766696863640177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0782615274750033</v>
+        <v>0.0774587768255838</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1195620467524055</v>
+        <v>0.1212578384056061</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>120</v>
@@ -4825,19 +4825,19 @@
         <v>133985</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110509</v>
+        <v>112174</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>157792</v>
+        <v>158344</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1349556117259546</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1113092874081868</v>
+        <v>0.1129867086459518</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1589351675308777</v>
+        <v>0.1594908792435498</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>195</v>
@@ -4846,19 +4846,19 @@
         <v>207444</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>180937</v>
+        <v>178545</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>237239</v>
+        <v>233112</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1188828037063566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1036918475677588</v>
+        <v>0.1023207561596667</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1359577823512521</v>
+        <v>0.1335922816244869</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>32943</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22449</v>
+        <v>23118</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44850</v>
+        <v>45561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04379916565184031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0298466166463621</v>
+        <v>0.03073584124763131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05963021819172245</v>
+        <v>0.06057556968078336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -4896,19 +4896,19 @@
         <v>35278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25119</v>
+        <v>23644</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48935</v>
+        <v>48244</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03553388464797292</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02530085192605658</v>
+        <v>0.023815256873467</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04928899734667404</v>
+        <v>0.04859320242668742</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -4917,19 +4917,19 @@
         <v>68221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53622</v>
+        <v>53487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85262</v>
+        <v>86223</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03909653171142722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03072973341445923</v>
+        <v>0.03065231588990478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04886219661464653</v>
+        <v>0.04941297013738975</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>545156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>519698</v>
+        <v>520048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>568957</v>
+        <v>568307</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7248072447374252</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6909597544534393</v>
+        <v>0.6914256847005981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7564520473537925</v>
+        <v>0.7555871454003961</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>665</v>
@@ -4967,19 +4967,19 @@
         <v>744662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>717039</v>
+        <v>715567</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>775470</v>
+        <v>771279</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7500548217851238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7222314655162223</v>
+        <v>0.7207492815852466</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7810860574021495</v>
+        <v>0.7768645774343365</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1221</v>
@@ -4988,19 +4988,19 @@
         <v>1289818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1249524</v>
+        <v>1252644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1324134</v>
+        <v>1331009</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7391721662303723</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7160806849233188</v>
+        <v>0.7178688217815087</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7588383745697217</v>
+        <v>0.7627782656951706</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>25069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16174</v>
+        <v>16235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37691</v>
+        <v>37728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01209953904155388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00780625140514512</v>
+        <v>0.007835752897046846</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01819170160166559</v>
+        <v>0.01820943266224401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -5113,19 +5113,19 @@
         <v>20492</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13098</v>
+        <v>12557</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31603</v>
+        <v>30886</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01035464621362822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006618516315766631</v>
+        <v>0.006344974413684023</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01596889347188646</v>
+        <v>0.01560652793440658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -5134,19 +5134,19 @@
         <v>45561</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34253</v>
+        <v>33911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62021</v>
+        <v>61573</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01124709203590044</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008455543091767655</v>
+        <v>0.008371032700709919</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01531021636542589</v>
+        <v>0.01519979852464626</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>369934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335724</v>
+        <v>334982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>403993</v>
+        <v>406393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1785483180229513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1620369802975466</v>
+        <v>0.1616789322257383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.194986859210346</v>
+        <v>0.1961452804074792</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -5184,19 +5184,19 @@
         <v>184666</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160480</v>
+        <v>161260</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>215357</v>
+        <v>213551</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09331082685722951</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08108989008577555</v>
+        <v>0.08148397132337766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1088192293542252</v>
+        <v>0.1079065613303841</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>523</v>
@@ -5205,19 +5205,19 @@
         <v>554600</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>510719</v>
+        <v>512460</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>601886</v>
+        <v>600741</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1369065375360603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1260742991421706</v>
+        <v>0.1265040620907721</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1485794697688663</v>
+        <v>0.1482967946496136</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>243278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>213655</v>
+        <v>214019</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>274458</v>
+        <v>275375</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1174180704143451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1031205411071723</v>
+        <v>0.103296186048688</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1324668606112756</v>
+        <v>0.1329096399656496</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>278</v>
@@ -5255,19 +5255,19 @@
         <v>288230</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257136</v>
+        <v>257855</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>321721</v>
+        <v>321286</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1456414155446396</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1299299926893781</v>
+        <v>0.1302932990804266</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1625641686023729</v>
+        <v>0.1623447815134143</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>503</v>
@@ -5276,19 +5276,19 @@
         <v>531508</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>492704</v>
+        <v>493123</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>580787</v>
+        <v>577523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1312062559468884</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1216272066704707</v>
+        <v>0.1217305558293176</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1433711687595191</v>
+        <v>0.1425652942095747</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>159690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133948</v>
+        <v>135668</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>184453</v>
+        <v>186072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07707433715619012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06464965653297083</v>
+        <v>0.0654801197466868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0890258923294712</v>
+        <v>0.08980754746615337</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>184</v>
@@ -5326,19 +5326,19 @@
         <v>187238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161690</v>
+        <v>162622</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>214220</v>
+        <v>213535</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09461079900751995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08170130512942134</v>
+        <v>0.08217203920833659</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1082444378236425</v>
+        <v>0.1078984487042776</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>335</v>
@@ -5347,19 +5347,19 @@
         <v>346929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>310646</v>
+        <v>311363</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>381232</v>
+        <v>384249</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08564157071671384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07668510074817934</v>
+        <v>0.07686192407383115</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09410958640253436</v>
+        <v>0.09485442835527723</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>1273927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1232079</v>
+        <v>1228302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1322413</v>
+        <v>1316201</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6148597353649596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.594661602843123</v>
+        <v>0.5928385339875036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6382612416106884</v>
+        <v>0.6352628960325118</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1237</v>
@@ -5397,19 +5397,19 @@
         <v>1298411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1259342</v>
+        <v>1258754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1342543</v>
+        <v>1341709</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6560823123769827</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6363407919215763</v>
+        <v>0.636043595885335</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6783820186298857</v>
+        <v>0.6779604237622218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2442</v>
@@ -5418,19 +5418,19 @@
         <v>2572338</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2505330</v>
+        <v>2508656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2630133</v>
+        <v>2633984</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6349985437644371</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6184569844835934</v>
+        <v>0.6192781729505741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.649265608707321</v>
+        <v>0.6502161085143224</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>12836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7430</v>
+        <v>6810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21591</v>
+        <v>21968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02356276685954813</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01363937420024805</v>
+        <v>0.0125016460723935</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03963398030266375</v>
+        <v>0.04032637971758481</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -5543,19 +5543,19 @@
         <v>11303</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6037</v>
+        <v>6072</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20389</v>
+        <v>19640</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02062029234457973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01101320950511054</v>
+        <v>0.01107688042709271</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03719664535484524</v>
+        <v>0.03583036263302671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -5564,19 +5564,19 @@
         <v>24139</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16208</v>
+        <v>15182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37748</v>
+        <v>35177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02208697878510722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01483061112914481</v>
+        <v>0.01389133135189946</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03453992997790323</v>
+        <v>0.03218750357188097</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>131077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111372</v>
+        <v>112312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>153173</v>
+        <v>153032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2406174993623642</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2044439672802252</v>
+        <v>0.2061699238863568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2811783057431674</v>
+        <v>0.2809186420761045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -5614,19 +5614,19 @@
         <v>74889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58654</v>
+        <v>59807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90696</v>
+        <v>92692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1366254132794714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.107005650324898</v>
+        <v>0.1091099236206114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1654631428752872</v>
+        <v>0.1691039430910519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>191</v>
@@ -5635,19 +5635,19 @@
         <v>205967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180613</v>
+        <v>178400</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232980</v>
+        <v>231219</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1884606226598949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1652621562841446</v>
+        <v>0.1632373069197525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2131781384488848</v>
+        <v>0.2115663807953608</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>67434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53703</v>
+        <v>51615</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85232</v>
+        <v>85382</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1237882310797377</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09858202895528226</v>
+        <v>0.09474988745223063</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1564591777273465</v>
+        <v>0.1567344808110621</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>98</v>
@@ -5685,19 +5685,19 @@
         <v>104794</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86828</v>
+        <v>86962</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>125516</v>
+        <v>124570</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1911822415872221</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1584054222857697</v>
+        <v>0.1586508478276114</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2289880553467215</v>
+        <v>0.2272621488956161</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>158</v>
@@ -5706,19 +5706,19 @@
         <v>172228</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147690</v>
+        <v>148848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>197160</v>
+        <v>199533</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1575894675865417</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1351376358333182</v>
+        <v>0.1361967219598716</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1804027820957793</v>
+        <v>0.1825743153188066</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>38029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28102</v>
+        <v>27990</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53238</v>
+        <v>51560</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06980876847012106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05158670542515936</v>
+        <v>0.05138067501648162</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09772841553898261</v>
+        <v>0.09464816722534564</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -5756,19 +5756,19 @@
         <v>61943</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48099</v>
+        <v>48204</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79156</v>
+        <v>78201</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1130068824518189</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08774961442621515</v>
+        <v>0.08794097732553816</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.144408843886868</v>
+        <v>0.142667198223038</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -5777,19 +5777,19 @@
         <v>99972</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81269</v>
+        <v>82980</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120398</v>
+        <v>120779</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09147463545664045</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07436201968646208</v>
+        <v>0.07592747425831783</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1101644458019561</v>
+        <v>0.110513743852051</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>295378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269734</v>
+        <v>272072</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>320112</v>
+        <v>319206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.542222734228229</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4951479442777722</v>
+        <v>0.499440141909672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5876265886822747</v>
+        <v>0.5859644644078095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>284</v>
@@ -5827,19 +5827,19 @@
         <v>295206</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>271884</v>
+        <v>270815</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318333</v>
+        <v>318899</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5385651703369079</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4960158599220342</v>
+        <v>0.4940657814913882</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5807567288039687</v>
+        <v>0.5817893639058561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>556</v>
@@ -5848,19 +5848,19 @@
         <v>590584</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>557238</v>
+        <v>556169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>624704</v>
+        <v>625393</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5403882955118158</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5098765681681181</v>
+        <v>0.5088983554914317</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5716077852302276</v>
+        <v>0.5722382252834541</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>45930</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33813</v>
+        <v>34418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61383</v>
+        <v>62686</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01363403462263161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01003713475475694</v>
+        <v>0.01021666559748869</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01822109361487148</v>
+        <v>0.01860796253960918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -5973,19 +5973,19 @@
         <v>38255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27012</v>
+        <v>27469</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51520</v>
+        <v>51763</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01086807277905438</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007673977293632854</v>
+        <v>0.00780375644542702</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01463643642145263</v>
+        <v>0.01470559561172101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -5994,19 +5994,19 @@
         <v>84186</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66658</v>
+        <v>66161</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103168</v>
+        <v>103450</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01222070077537009</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009676352809576752</v>
+        <v>0.009604150157738155</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01497623766844005</v>
+        <v>0.0150171489267</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>593567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>547371</v>
+        <v>542049</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638649</v>
+        <v>638234</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1761958473563723</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1624829103097506</v>
+        <v>0.1609030954295386</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.189578070509755</v>
+        <v>0.1894548013862916</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>317</v>
@@ -6044,19 +6044,19 @@
         <v>331979</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>299396</v>
+        <v>294046</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>369783</v>
+        <v>368451</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09431259121081259</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08505614384012243</v>
+        <v>0.08353624080225873</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.10505252391273</v>
+        <v>0.1046739699134268</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>868</v>
@@ -6065,19 +6065,19 @@
         <v>925546</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>867728</v>
+        <v>872996</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>989732</v>
+        <v>985219</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1343556543315718</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1259625822287926</v>
+        <v>0.1267272897006438</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1436732376176343</v>
+        <v>0.1430180991287206</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>384172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>348631</v>
+        <v>347863</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>422564</v>
+        <v>426303</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1140384018931653</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1034883886152746</v>
+        <v>0.1032605930020299</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1254349820825436</v>
+        <v>0.1265446911131812</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>496</v>
@@ -6115,19 +6115,19 @@
         <v>527009</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>486948</v>
+        <v>488223</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>571118</v>
+        <v>574018</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1497191417242742</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1383382231665028</v>
+        <v>0.1387002715645848</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1622502441843446</v>
+        <v>0.1630740377402372</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>856</v>
@@ -6136,19 +6136,19 @@
         <v>911180</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>855848</v>
+        <v>852298</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>973203</v>
+        <v>969671</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1322703227042704</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1242381347595286</v>
+        <v>0.1237228078435868</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1412738081106465</v>
+        <v>0.1407610487179005</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>230662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>202450</v>
+        <v>201624</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>265000</v>
+        <v>261740</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06847021439092993</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06009564957917327</v>
+        <v>0.05985069417753049</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07866310411211505</v>
+        <v>0.07769554688367641</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>278</v>
@@ -6186,19 +6186,19 @@
         <v>284460</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>252025</v>
+        <v>251464</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>318965</v>
+        <v>319537</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08081281886069221</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07159827272265652</v>
+        <v>0.07143911067996106</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0906155293707277</v>
+        <v>0.09077795701117078</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>497</v>
@@ -6207,19 +6207,19 @@
         <v>515122</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>473190</v>
+        <v>473808</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>560587</v>
+        <v>555225</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07477696106604517</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0686899564960342</v>
+        <v>0.06877979244276175</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08137688414066924</v>
+        <v>0.08059853113702414</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>2114460</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2055072</v>
+        <v>2053891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2173451</v>
+        <v>2172607</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6276615017369008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6100324372777731</v>
+        <v>0.6096818530424656</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6451724541072283</v>
+        <v>0.6449218783949662</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2186</v>
@@ -6257,19 +6257,19 @@
         <v>2338280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2285366</v>
+        <v>2277247</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2395587</v>
+        <v>2393863</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6642873754251667</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6492547436695092</v>
+        <v>0.6469482611445065</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6805676793891288</v>
+        <v>0.6800780687185065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4219</v>
@@ -6278,19 +6278,19 @@
         <v>4452741</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4371196</v>
+        <v>4371207</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4536981</v>
+        <v>4538882</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6463763611227424</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6345390579269862</v>
+        <v>0.6345406301060846</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6586049365542629</v>
+        <v>0.6588809653007471</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>7008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2837</v>
+        <v>3183</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14203</v>
+        <v>14672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01219518776452467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004937346109021256</v>
+        <v>0.005538941069481571</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02471698253267019</v>
+        <v>0.02553382585327453</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4869</v>
+        <v>5172</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001675023602162248</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005938016551259374</v>
+        <v>0.006307184412453327</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6663,19 +6663,19 @@
         <v>8381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3598</v>
+        <v>4305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15965</v>
+        <v>16806</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006009754301362895</v>
+        <v>0.006009754301362894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00258025177966414</v>
+        <v>0.003087123304822522</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01144814782474514</v>
+        <v>0.01205107150856891</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>93303</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76890</v>
+        <v>76931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115547</v>
+        <v>115225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1623731556067665</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1338098158066418</v>
+        <v>0.1338820157134244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.201085016354002</v>
+        <v>0.2005232619203115</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -6713,19 +6713,19 @@
         <v>73130</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60649</v>
+        <v>59684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87413</v>
+        <v>87197</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08918798451962696</v>
+        <v>0.08918798451962699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07396596000017734</v>
+        <v>0.0727897408376722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1066075216539202</v>
+        <v>0.1063445689700389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -6734,19 +6734,19 @@
         <v>166433</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142545</v>
+        <v>143911</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193275</v>
+        <v>193807</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1193432181207</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1022141377253583</v>
+        <v>0.1031937646553087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1385909761222656</v>
+        <v>0.1389722345010388</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>42096</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30541</v>
+        <v>30568</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55239</v>
+        <v>55371</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07325903452213499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05315056678696326</v>
+        <v>0.05319663421785369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09613078914896341</v>
+        <v>0.09636122963811748</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>91</v>
@@ -6784,19 +6784,19 @@
         <v>56111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45823</v>
+        <v>45491</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67390</v>
+        <v>68074</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06843154871636403</v>
+        <v>0.06843154871636405</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05588471124177933</v>
+        <v>0.0554802496610951</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08218745543871066</v>
+        <v>0.08302210643299755</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>137</v>
@@ -6805,19 +6805,19 @@
         <v>98207</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82367</v>
+        <v>83199</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>116318</v>
+        <v>115698</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07042066700380449</v>
+        <v>0.07042066700380448</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05906264328103656</v>
+        <v>0.05965902467623874</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08340778679411448</v>
+        <v>0.08296306175746604</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>19411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12814</v>
+        <v>11980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29211</v>
+        <v>29174</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03378111028345505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0222999164249496</v>
+        <v>0.02084871414116552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05083484659483406</v>
+        <v>0.05077034713947581</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -6855,19 +6855,19 @@
         <v>18971</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13185</v>
+        <v>12894</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28688</v>
+        <v>26799</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02313692278146614</v>
+        <v>0.02313692278146615</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01608026745571592</v>
+        <v>0.01572540872406147</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0349877478276816</v>
+        <v>0.03268403174766037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -6876,19 +6876,19 @@
         <v>38382</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28179</v>
+        <v>28926</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49982</v>
+        <v>51827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02752275608414324</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02020608508470884</v>
+        <v>0.02074184747451776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03584063589734895</v>
+        <v>0.03716321050633851</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>412802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>389344</v>
+        <v>386911</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432479</v>
+        <v>433350</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7183915118231188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6775673362046999</v>
+        <v>0.6733331883189333</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.752635206938612</v>
+        <v>0.7541498191022099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1186</v>
@@ -6926,19 +6926,19 @@
         <v>670367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>650696</v>
+        <v>651284</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>686997</v>
+        <v>686408</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8175685203803806</v>
+        <v>0.8175685203803807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7935784011201471</v>
+        <v>0.7942954324722967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8378502862761488</v>
+        <v>0.8371315532858227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1715</v>
@@ -6947,19 +6947,19 @@
         <v>1083169</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1053129</v>
+        <v>1050881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1111782</v>
+        <v>1110748</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7767036044899895</v>
+        <v>0.7767036044899894</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7551631944876354</v>
+        <v>0.753551113921511</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7972211849281121</v>
+        <v>0.7964798002854351</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>25792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15028</v>
+        <v>14264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44352</v>
+        <v>45553</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.011590742849272</v>
+        <v>0.01159074284927201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006753644099706906</v>
+        <v>0.006410336989663699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01993173166112132</v>
+        <v>0.02047168071912198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -7072,19 +7072,19 @@
         <v>5575</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2435</v>
+        <v>2371</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10797</v>
+        <v>10682</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.002574117664316313</v>
+        <v>0.002574117664316314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001124233775225022</v>
+        <v>0.001094509371982531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.004984945101440623</v>
+        <v>0.004931913637530053</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -7093,19 +7093,19 @@
         <v>31367</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19417</v>
+        <v>19232</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53046</v>
+        <v>49470</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.007143339927033026</v>
+        <v>0.007143339927033028</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00442193979558256</v>
+        <v>0.004379795397113176</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01208043993099821</v>
+        <v>0.0112661258331494</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>612234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>562509</v>
+        <v>562734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>669289</v>
+        <v>660263</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2751388029353654</v>
+        <v>0.2751388029353655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2527923992578642</v>
+        <v>0.2528932045459377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3007791162235086</v>
+        <v>0.2967231576435349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>490</v>
@@ -7143,19 +7143,19 @@
         <v>365747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>334034</v>
+        <v>335305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>401220</v>
+        <v>402446</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.168869201414568</v>
+        <v>0.1688692014145681</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1542271876167</v>
+        <v>0.1548139974229317</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1852473760390579</v>
+        <v>0.1858138890799255</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>979</v>
@@ -7164,19 +7164,19 @@
         <v>977981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>917319</v>
+        <v>920625</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1037879</v>
+        <v>1043074</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2227218812319611</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2089070696982291</v>
+        <v>0.2096599870730979</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2363628985937184</v>
+        <v>0.2375459293967061</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>188002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>159044</v>
+        <v>159062</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222423</v>
+        <v>221623</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0844882156497417</v>
+        <v>0.08448821564974171</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07147460997192781</v>
+        <v>0.07148282296721789</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09995701895973075</v>
+        <v>0.09959760974099774</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>389</v>
@@ -7214,19 +7214,19 @@
         <v>314104</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>283228</v>
+        <v>283795</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>346994</v>
+        <v>347811</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1450251941361988</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.130769652804433</v>
+        <v>0.1310312459572656</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1602108752819</v>
+        <v>0.1605881690644123</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>542</v>
@@ -7235,19 +7235,19 @@
         <v>502106</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>460647</v>
+        <v>462732</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>552150</v>
+        <v>549099</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1143477617106563</v>
+        <v>0.1143477617106564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1049062161799263</v>
+        <v>0.1053809585415658</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1257447106616994</v>
+        <v>0.1250497851153446</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>126485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103436</v>
+        <v>103608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156567</v>
+        <v>153238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05684234300134508</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04648446810332001</v>
+        <v>0.04656139223067752</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07036159491776378</v>
+        <v>0.06886540112379365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>235</v>
@@ -7285,19 +7285,19 @@
         <v>184422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163408</v>
+        <v>160250</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210248</v>
+        <v>208431</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08514941632371148</v>
+        <v>0.08514941632371149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07544735666974244</v>
+        <v>0.07398907813181037</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09707357367961783</v>
+        <v>0.09623462798302639</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>340</v>
@@ -7306,19 +7306,19 @@
         <v>310906</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>278365</v>
+        <v>276016</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349073</v>
+        <v>345846</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07080465795084288</v>
+        <v>0.0708046579508429</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06339380210436428</v>
+        <v>0.06285888972321477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07949664526762514</v>
+        <v>0.07876186093882083</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>1272671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1216738</v>
+        <v>1216052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1331218</v>
+        <v>1327154</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5719398955642757</v>
+        <v>0.5719398955642758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5468036654529902</v>
+        <v>0.54649525945511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5982509008921021</v>
+        <v>0.5964244642578885</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1791</v>
@@ -7356,19 +7356,19 @@
         <v>1296011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1254485</v>
+        <v>1253857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1338949</v>
+        <v>1338836</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5983820704612053</v>
+        <v>0.5983820704612054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5792090836518932</v>
+        <v>0.5789192091601491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6182073073822949</v>
+        <v>0.6181551494762723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3014</v>
@@ -7377,19 +7377,19 @@
         <v>2568681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2500375</v>
+        <v>2502828</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2640365</v>
+        <v>2638112</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5849823591795066</v>
+        <v>0.5849823591795067</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5694266965284318</v>
+        <v>0.5699851737350318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6013073645332888</v>
+        <v>0.6007942774824805</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>7275</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3070</v>
+        <v>3175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14062</v>
+        <v>14367</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01025667037451502</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004328909695789753</v>
+        <v>0.00447702216980425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01982734761155663</v>
+        <v>0.02025629625584592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -7502,19 +7502,19 @@
         <v>6278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3014</v>
+        <v>2973</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11068</v>
+        <v>11464</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008572484241790027</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004115572205448571</v>
+        <v>0.00406013356439556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01511365444836249</v>
+        <v>0.01565428162468768</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -7523,19 +7523,19 @@
         <v>13552</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7991</v>
+        <v>7792</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22429</v>
+        <v>22168</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009401106405310358</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005543577848394062</v>
+        <v>0.005405545788580461</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01555903566435814</v>
+        <v>0.0153777781159793</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>190120</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166548</v>
+        <v>167559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>217800</v>
+        <v>217230</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2680599381299964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2348243157745041</v>
+        <v>0.2362489078942452</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.307086049005523</v>
+        <v>0.3062824695227077</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -7573,19 +7573,19 @@
         <v>143269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122500</v>
+        <v>123336</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163712</v>
+        <v>162712</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1956407464552659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1672790783389335</v>
+        <v>0.1684215669116066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.223556183293362</v>
+        <v>0.2221914273237584</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -7594,19 +7594,19 @@
         <v>333390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299364</v>
+        <v>301669</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>367445</v>
+        <v>368543</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2312710999654306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2076677193795831</v>
+        <v>0.20926693746528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2548951081610555</v>
+        <v>0.2556571031304895</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>95799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75684</v>
+        <v>75084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121468</v>
+        <v>119715</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1350709118454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1067104689873651</v>
+        <v>0.1058648787578023</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1712642124786011</v>
+        <v>0.1687923759957353</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>136</v>
@@ -7644,19 +7644,19 @@
         <v>112271</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94953</v>
+        <v>96504</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>132214</v>
+        <v>131202</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1533107045804049</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1296633227840429</v>
+        <v>0.1317803098220157</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1805445096515116</v>
+        <v>0.1791631936377477</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>211</v>
@@ -7665,19 +7665,19 @@
         <v>208069</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>179271</v>
+        <v>180674</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>237951</v>
+        <v>239282</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1443366985459364</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1243595119065153</v>
+        <v>0.1253328072717366</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1650653869479428</v>
+        <v>0.1659888065175269</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>47674</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33435</v>
+        <v>32975</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64254</v>
+        <v>63710</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06721807148357359</v>
+        <v>0.06721807148357357</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04714145656321772</v>
+        <v>0.04649370058842495</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09059509872204898</v>
+        <v>0.08982763009358234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -7715,19 +7715,19 @@
         <v>63390</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51851</v>
+        <v>51270</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77851</v>
+        <v>76184</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08656182454959033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07080550239767854</v>
+        <v>0.07001094070025249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1063096134156472</v>
+        <v>0.1040328032770758</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -7736,19 +7736,19 @@
         <v>111064</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92292</v>
+        <v>92657</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>132520</v>
+        <v>134204</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07704466833703345</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06402230286636144</v>
+        <v>0.06427591910024427</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09192853338328993</v>
+        <v>0.09309672175993582</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>368378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>340163</v>
+        <v>340232</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>398388</v>
+        <v>397975</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5193944081665151</v>
+        <v>0.5193944081665149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4796123356149308</v>
+        <v>0.4797092577943499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5617066663469142</v>
+        <v>0.5611234622215572</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>559</v>
@@ -7786,19 +7786,19 @@
         <v>407100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>383398</v>
+        <v>383448</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>432089</v>
+        <v>430772</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.555914240172949</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5235481045981316</v>
+        <v>0.5236169667245023</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5900376144435897</v>
+        <v>0.5882391410636229</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>934</v>
@@ -7807,19 +7807,19 @@
         <v>775478</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>737492</v>
+        <v>732034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>814163</v>
+        <v>812970</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5379464267462892</v>
+        <v>0.5379464267462891</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5115954510508559</v>
+        <v>0.5078091917732392</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5647818885328878</v>
+        <v>0.5639541545325768</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>40074</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27143</v>
+        <v>26788</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63899</v>
+        <v>60666</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01142008118779774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007735116434924437</v>
+        <v>0.007634001940742272</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0182098121553573</v>
+        <v>0.01728833805395654</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -7932,19 +7932,19 @@
         <v>13226</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8297</v>
+        <v>7842</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19939</v>
+        <v>20088</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003557258024090966</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002231521550458063</v>
+        <v>0.002109073667535102</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005362794635512414</v>
+        <v>0.005402733868378414</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -7953,19 +7953,19 @@
         <v>53300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38425</v>
+        <v>39354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74786</v>
+        <v>75902</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007374941632770433</v>
+        <v>0.007374941632770434</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005316705932534678</v>
+        <v>0.005445301751719804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01034792638736433</v>
+        <v>0.01050228557011349</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>895658</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>838671</v>
+        <v>836101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>956205</v>
+        <v>954079</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2552422391993651</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2390022645121075</v>
+        <v>0.2382700292832718</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2724969360101014</v>
+        <v>0.271891070128416</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>813</v>
@@ -8003,19 +8003,19 @@
         <v>582145</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>541734</v>
+        <v>548587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>623561</v>
+        <v>629016</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1565700177889551</v>
+        <v>0.1565700177889552</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1457011664227641</v>
+        <v>0.1475443999223124</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1677088787051952</v>
+        <v>0.1691760825099195</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1566</v>
@@ -8024,19 +8024,19 @@
         <v>1477803</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1404924</v>
+        <v>1407114</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1551511</v>
+        <v>1559280</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2044789322421356</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1943949034634755</v>
+        <v>0.194697980855973</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2146777243693669</v>
+        <v>0.2157526791326866</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>325896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>285110</v>
+        <v>289123</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>365912</v>
+        <v>370414</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09287313292366739</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08124981894845529</v>
+        <v>0.08239358842381955</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1042767839686086</v>
+        <v>0.1055595507453879</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>616</v>
@@ -8074,19 +8074,19 @@
         <v>482485</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>446679</v>
+        <v>443795</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>521168</v>
+        <v>520979</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.129765966740314</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1201358723977358</v>
+        <v>0.1193603050445047</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1401698331340485</v>
+        <v>0.1401191794134544</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>890</v>
@@ -8095,19 +8095,19 @@
         <v>808381</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>750566</v>
+        <v>753377</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>861482</v>
+        <v>864027</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1118531682445191</v>
+        <v>0.1118531682445192</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1038534012404373</v>
+        <v>0.1042423868140325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1192005033788914</v>
+        <v>0.1195526663368587</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>193570</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>161045</v>
+        <v>166140</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>224637</v>
+        <v>225257</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05516311597909095</v>
+        <v>0.05516311597909094</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04589411547416131</v>
+        <v>0.04734621186097474</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0640165655818504</v>
+        <v>0.06419331821096565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>353</v>
@@ -8145,19 +8145,19 @@
         <v>266782</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>239639</v>
+        <v>242474</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>295263</v>
+        <v>296121</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07175205281469685</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06445166449214072</v>
+        <v>0.06521425720334743</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07941187537290668</v>
+        <v>0.07964268997213102</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>522</v>
@@ -8166,19 +8166,19 @@
         <v>460353</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>418593</v>
+        <v>418890</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>498322</v>
+        <v>502055</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06369752698801458</v>
+        <v>0.06369752698801459</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05791936228235723</v>
+        <v>0.05796046014765751</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06895124961365456</v>
+        <v>0.06946779115419187</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>2053851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1987947</v>
+        <v>1984038</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2116215</v>
+        <v>2120515</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5853014307100789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5665202825162244</v>
+        <v>0.5654063226051751</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6030736285119919</v>
+        <v>0.6042991001209868</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3536</v>
@@ -8216,19 +8216,19 @@
         <v>2373477</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2315740</v>
+        <v>2321155</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2421375</v>
+        <v>2423724</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6383547046319431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6228261311320268</v>
+        <v>0.6242825476110786</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6512370708771109</v>
+        <v>0.6518688153415669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5663</v>
@@ -8237,19 +8237,19 @@
         <v>4427328</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4337093</v>
+        <v>4347668</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4506248</v>
+        <v>4518754</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6125954308925602</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6001098876131238</v>
+        <v>0.6015731021097492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6235153190475557</v>
+        <v>0.6252456718581932</v>
       </c>
     </row>
     <row r="27">
